--- a/Aufgabe1/Tracetables.xlsx
+++ b/Aufgabe1/Tracetables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixbr\Documents\GitHub\felixChB.eia2\Aufgabe1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20C964-BB48-416C-873D-CD46C98A58A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215B373-5967-4229-BE26-A8F195C0CD4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{E9EF8A1E-2C47-45FF-8A32-9735CA907393}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9EF8A1E-2C47-45FF-8A32-9735CA907393}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
   <si>
     <t>Zeile</t>
   </si>
@@ -78,9 +78,6 @@
     <t>"muhu"</t>
   </si>
   <si>
-    <t>0&gt;|0</t>
-  </si>
-  <si>
     <t>geben "muhu" zurück</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>console.log("muuuuhu")</t>
   </si>
   <si>
-    <t>3&lt;|3</t>
-  </si>
-  <si>
     <t>Erwartungen:</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>y:number</t>
   </si>
   <si>
-    <t>a:number</t>
-  </si>
-  <si>
     <t>_height:number</t>
   </si>
   <si>
@@ -253,13 +244,184 @@
   </si>
   <si>
     <t>_color:string</t>
+  </si>
+  <si>
+    <t>_a:number</t>
+  </si>
+  <si>
+    <t>i=0&lt;5</t>
+  </si>
+  <si>
+    <t>i==0</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>a=50&gt;0</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>placeDiv(#00ff00,340,100,50,50);</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>placeDiv(#ff0000, 170, 50, 50, 50);</t>
+  </si>
+  <si>
+    <t>div wird erstellt</t>
+  </si>
+  <si>
+    <t>In das div wird ein child beigefügt</t>
+  </si>
+  <si>
+    <t>style s wird erstellt</t>
+  </si>
+  <si>
+    <t>s.border = "thin solid black"</t>
+  </si>
+  <si>
+    <t>s.position = "absolute"</t>
+  </si>
+  <si>
+    <t>s.backgroundColor = #00ff00</t>
+  </si>
+  <si>
+    <t>s.backgroundColor = #0000ff</t>
+  </si>
+  <si>
+    <t>s.backgroundColor = #ff0000</t>
+  </si>
+  <si>
+    <t>s.width = 50px</t>
+  </si>
+  <si>
+    <t>s.height = 50px</t>
+  </si>
+  <si>
+    <t>s.left = 170px</t>
+  </si>
+  <si>
+    <t>s.top = 50px</t>
+  </si>
+  <si>
+    <t>a = 30 &gt; 0</t>
+  </si>
+  <si>
+    <t>placeDiv(#ff0000, 170, 50, 30, 30);</t>
+  </si>
+  <si>
+    <t>s.width = 30px</t>
+  </si>
+  <si>
+    <t>s.height = 30px</t>
+  </si>
+  <si>
+    <t>a = 10 &gt; 0</t>
+  </si>
+  <si>
+    <t>placeDiv(#ff0000, 170, 50, 10, 10);</t>
+  </si>
+  <si>
+    <t>s.width = 10px</t>
+  </si>
+  <si>
+    <t>s.height = 10px</t>
+  </si>
+  <si>
+    <t>a = -10 &lt; 0, break</t>
+  </si>
+  <si>
+    <t>i = 1 &lt; 5</t>
+  </si>
+  <si>
+    <t>i == 1, Empty case =&gt; Übernehme case 4.</t>
+  </si>
+  <si>
+    <t>s.left = 340px</t>
+  </si>
+  <si>
+    <t>s.top = 100px</t>
+  </si>
+  <si>
+    <t>placeDiv(#00ff00, 340, 100, 30, 30);</t>
+  </si>
+  <si>
+    <t>placeDiv(#00ff00, 340, 100, 10, 10);</t>
+  </si>
+  <si>
+    <t>i = 2 &lt; 5</t>
+  </si>
+  <si>
+    <t>da i == 2, default Case</t>
+  </si>
+  <si>
+    <t>a = 50 &gt; 0</t>
+  </si>
+  <si>
+    <t>placeDiv(#0000ff, 110, 120, 50, 50);</t>
+  </si>
+  <si>
+    <t>s.left = 110px</t>
+  </si>
+  <si>
+    <t>s.top = 120px</t>
+  </si>
+  <si>
+    <t>placeDiv(#0000ff, 110, 120, 30, 30);</t>
+  </si>
+  <si>
+    <t>placeDiv(#0000ff, 110, 120, 10, 10);</t>
+  </si>
+  <si>
+    <t>i = 3 &lt; 5</t>
+  </si>
+  <si>
+    <t>i == 3, case 3</t>
+  </si>
+  <si>
+    <t>i = 4 &lt; 5</t>
+  </si>
+  <si>
+    <t>i == 4, case 4</t>
+  </si>
+  <si>
+    <t>placeDiv(#00ff00, 50, 220, 50, 50);</t>
+  </si>
+  <si>
+    <t>s.left = 50px</t>
+  </si>
+  <si>
+    <t>s.top = 220px</t>
+  </si>
+  <si>
+    <t>i == 4 wird erfüllt</t>
+  </si>
+  <si>
+    <t>i = 5, i ≮ 5, break</t>
+  </si>
+  <si>
+    <t>3≮3</t>
+  </si>
+  <si>
+    <t>0≯0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +433,19 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,9 +471,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -615,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4BC24-B30E-4225-BC0D-51286A9EDAFD}">
   <dimension ref="B1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,12 +808,12 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -673,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -703,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -757,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -765,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -781,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -792,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
@@ -800,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -822,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
@@ -830,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
@@ -849,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -857,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -865,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
@@ -876,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
@@ -884,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
@@ -892,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
@@ -903,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
@@ -911,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
@@ -919,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
@@ -927,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
@@ -946,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
@@ -954,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
@@ -973,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
@@ -981,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
@@ -989,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
@@ -1000,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
@@ -1008,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
@@ -1016,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
@@ -1024,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
@@ -1035,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.3">
@@ -1043,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.3">
@@ -1065,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.3">
@@ -1073,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
@@ -1092,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
@@ -1100,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
@@ -1108,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
@@ -1119,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.3">
@@ -1127,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.3">
@@ -1135,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.3">
@@ -1154,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.3">
@@ -1162,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.3">
@@ -1181,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.3">
@@ -1189,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.3">
@@ -1197,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.3">
@@ -1208,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.3">
@@ -1216,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
@@ -1224,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
@@ -1232,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
@@ -1243,40 +1423,40 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1287,59 +1467,3117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AEAEE3-D215-42F7-9D9C-2F090469E135}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>170</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>50</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" s="2">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="2">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>170</v>
+      </c>
+      <c r="L27" s="2">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>10</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="2">
+        <v>10</v>
+      </c>
+      <c r="J40" s="2">
+        <v>10</v>
+      </c>
+      <c r="K40" s="2">
+        <v>170</v>
+      </c>
+      <c r="L40" s="2">
+        <v>50</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
+        <v>340</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="2">
+        <v>50</v>
+      </c>
+      <c r="J57" s="2">
+        <v>50</v>
+      </c>
+      <c r="K57" s="2">
+        <v>340</v>
+      </c>
+      <c r="L57" s="2">
+        <v>100</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>31</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>32</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>42</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2">
+        <v>30</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>24</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="2">
+        <v>30</v>
+      </c>
+      <c r="J70" s="2">
+        <v>30</v>
+      </c>
+      <c r="K70" s="2">
+        <v>340</v>
+      </c>
+      <c r="L70" s="2">
+        <v>100</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>32</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2">
+        <v>10</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="5">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="5">
+        <v>30</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="2">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2">
+        <v>10</v>
+      </c>
+      <c r="K83" s="2">
+        <v>340</v>
+      </c>
+      <c r="L83" s="2">
+        <v>100</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="5">
+        <v>31</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="5">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
+        <v>38</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="5">
+        <v>39</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="5">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="5">
+        <v>43</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
+        <v>44</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="5">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
+        <v>120</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="5">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <v>110</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="5">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="5">
+        <v>21</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B100" s="5">
+        <v>23</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2">
+        <v>50</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
+        <v>24</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="5">
+        <v>30</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="2">
+        <v>50</v>
+      </c>
+      <c r="J102" s="2">
+        <v>50</v>
+      </c>
+      <c r="K102" s="2">
+        <v>110</v>
+      </c>
+      <c r="L102" s="2">
+        <v>120</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="5">
+        <v>31</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="5">
+        <v>32</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="5">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="5">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="5">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="5">
+        <v>41</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="5">
+        <v>42</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="5">
+        <v>43</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="5">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
+        <v>23</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2">
+        <v>30</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
+        <v>24</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
+        <v>30</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I115" s="2">
+        <v>30</v>
+      </c>
+      <c r="J115" s="2">
+        <v>30</v>
+      </c>
+      <c r="K115" s="2">
+        <v>110</v>
+      </c>
+      <c r="L115" s="2">
+        <v>120</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
+        <v>31</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B117" s="5">
+        <v>32</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
+        <v>38</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
+        <v>39</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
+        <v>40</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
+        <v>41</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
+        <v>42</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
+        <v>43</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
+        <v>44</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
+        <v>45</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
+        <v>23</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2">
+        <v>10</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
+        <v>24</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
+        <v>30</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128" s="2">
+        <v>10</v>
+      </c>
+      <c r="J128" s="2">
+        <v>10</v>
+      </c>
+      <c r="K128" s="2">
+        <v>110</v>
+      </c>
+      <c r="L128" s="2">
+        <v>120</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
+        <v>31</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
+        <v>32</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
+        <v>38</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
+        <v>39</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
+        <v>40</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="5">
+        <v>41</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" s="5">
+        <v>42</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="5">
+        <v>43</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="5">
+        <v>44</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="5">
+        <v>45</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>23</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="5">
+        <v>7</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2">
+        <v>3</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="5">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2">
+        <v>170</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="5">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>280</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="5">
+        <v>18</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="5">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="6">
+        <v>7</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4">
+        <v>4</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2">
+        <v>220</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="5">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2">
+        <v>50</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="5">
+        <v>11</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="5">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="5">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
+        <v>23</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2">
+        <v>50</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="5">
+        <v>24</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="5">
+        <v>30</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153" s="2">
+        <v>50</v>
+      </c>
+      <c r="J153" s="2">
+        <v>50</v>
+      </c>
+      <c r="K153" s="2">
+        <v>50</v>
+      </c>
+      <c r="L153" s="2">
+        <v>220</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
+        <v>31</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="5">
+        <v>32</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
+        <v>38</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="5">
+        <v>39</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="5">
+        <v>40</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="5">
+        <v>41</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="5">
+        <v>42</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
+        <v>43</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
+        <v>44</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
+        <v>45</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="5">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="5">
+        <v>26</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
+        <v>7</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2">
+        <v>5</v>
+      </c>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgabe1/Tracetables.xlsx
+++ b/Aufgabe1/Tracetables.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixbr\Documents\GitHub\felixChB.eia2\Aufgabe1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215B373-5967-4229-BE26-A8F195C0CD4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED95321-46D2-485F-965E-E8DCB3FE457C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E9EF8A1E-2C47-45FF-8A32-9735CA907393}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{E9EF8A1E-2C47-45FF-8A32-9735CA907393}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$H$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -793,684 +796,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4BC24-B30E-4225-BC0D-51286A9EDAFD}">
-  <dimension ref="B1:I75"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="G53">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="G63">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4">
+      <c r="H63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16">
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66">
         <v>5</v>
       </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17">
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="I43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="I48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="I54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <v>9</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C62">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="I66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
       <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" fitToWidth="2" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AEAEE3-D215-42F7-9D9C-2F090469E135}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4581,7 +4592,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="30" fitToWidth="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Aufgabe1/Tracetables.xlsx
+++ b/Aufgabe1/Tracetables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixbr\Documents\GitHub\felixChB.eia2\Aufgabe1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED95321-46D2-485F-965E-E8DCB3FE457C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2062DA-4DBB-4EEF-8310-2F33A1782A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{E9EF8A1E-2C47-45FF-8A32-9735CA907393}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>Zeile</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>0≯0</t>
+  </si>
+  <si>
+    <t>Die komplette Aufgabe 2 wurde als Gruppe mit Bastian Culig, Lisa Sanchez, Alexendru Mihai, Daniel Mainberger, Kathrin Wurz und Marvin Kübler bearbeitet.</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,87 +1494,74 @@
     <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1583,51 +1573,51 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>170</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1639,10 +1629,12 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>170</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1651,17 +1643,13 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1671,13 +1659,17 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1687,13 +1679,11 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1704,16 +1694,14 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>50</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1724,58 +1712,60 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>50</v>
+      </c>
       <c r="N13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="2">
-        <v>50</v>
-      </c>
-      <c r="J14" s="2">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2">
-        <v>170</v>
-      </c>
-      <c r="L14" s="2">
-        <v>50</v>
-      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" s="2">
+        <v>50</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1788,12 +1778,12 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1806,12 +1796,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1824,12 +1814,12 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1842,12 +1832,12 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1860,12 +1850,12 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1878,12 +1868,12 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1896,12 +1886,12 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1914,12 +1904,12 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1932,12 +1922,12 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1948,16 +1938,14 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>30</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1968,58 +1956,60 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <v>30</v>
+      </c>
       <c r="N26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="2">
-        <v>30</v>
-      </c>
-      <c r="J27" s="2">
-        <v>30</v>
-      </c>
-      <c r="K27" s="2">
-        <v>170</v>
-      </c>
-      <c r="L27" s="2">
-        <v>50</v>
-      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="2">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2">
+        <v>170</v>
+      </c>
+      <c r="L28" s="2">
+        <v>50</v>
+      </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2031,13 +2021,13 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="5" t="s">
-        <v>83</v>
+      <c r="N29" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2049,13 +2039,13 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>84</v>
+      <c r="N30" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2067,13 +2057,13 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="5" t="s">
-        <v>85</v>
+      <c r="N31" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2086,12 +2076,12 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2103,13 +2093,13 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>89</v>
+      <c r="N33" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2122,12 +2112,12 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2140,12 +2130,12 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2158,12 +2148,12 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2176,12 +2166,12 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2192,16 +2182,14 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2">
-        <v>10</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2212,58 +2200,60 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <v>10</v>
+      </c>
       <c r="N39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="2">
-        <v>10</v>
-      </c>
-      <c r="J40" s="2">
-        <v>10</v>
-      </c>
-      <c r="K40" s="2">
-        <v>170</v>
-      </c>
-      <c r="L40" s="2">
-        <v>50</v>
-      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10</v>
+      </c>
+      <c r="K41" s="2">
+        <v>170</v>
+      </c>
+      <c r="L41" s="2">
+        <v>50</v>
+      </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2276,12 +2266,12 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2293,13 +2283,13 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2" t="s">
-        <v>84</v>
+      <c r="N43" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2311,13 +2301,13 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="5" t="s">
-        <v>85</v>
+      <c r="N44" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2330,12 +2320,12 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2347,13 +2337,13 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2" t="s">
-        <v>89</v>
+      <c r="N46" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2366,12 +2356,12 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2384,12 +2374,12 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2402,12 +2392,12 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2420,12 +2410,12 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2438,19 +2428,17 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2458,36 +2446,38 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2">
-        <v>100</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2">
-        <v>340</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>100</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2499,12 +2489,12 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
+        <v>340</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2513,15 +2503,15 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2532,56 +2522,56 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I57" s="2">
-        <v>50</v>
-      </c>
-      <c r="J57" s="2">
-        <v>50</v>
-      </c>
-      <c r="K57" s="2">
-        <v>340</v>
-      </c>
-      <c r="L57" s="2">
-        <v>100</v>
-      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="2">
+        <v>50</v>
+      </c>
+      <c r="J58" s="2">
+        <v>50</v>
+      </c>
+      <c r="K58" s="2">
+        <v>340</v>
+      </c>
+      <c r="L58" s="2">
+        <v>100</v>
+      </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2594,12 +2584,12 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2611,13 +2601,13 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2" t="s">
-        <v>84</v>
+      <c r="N60" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2629,13 +2619,13 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="5" t="s">
-        <v>85</v>
+      <c r="N61" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2648,12 +2638,12 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2665,13 +2655,13 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2" t="s">
-        <v>87</v>
+      <c r="N63" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2684,12 +2674,12 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2702,12 +2692,12 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2720,12 +2710,12 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2738,12 +2728,12 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2754,16 +2744,14 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2">
-        <v>30</v>
-      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2774,58 +2762,60 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="M69" s="2">
+        <v>30</v>
+      </c>
       <c r="N69" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="2">
-        <v>30</v>
-      </c>
-      <c r="J70" s="2">
-        <v>30</v>
-      </c>
-      <c r="K70" s="2">
-        <v>340</v>
-      </c>
-      <c r="L70" s="2">
-        <v>100</v>
-      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="2">
+        <v>30</v>
+      </c>
+      <c r="J71" s="2">
+        <v>30</v>
+      </c>
+      <c r="K71" s="2">
+        <v>340</v>
+      </c>
+      <c r="L71" s="2">
+        <v>100</v>
+      </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2838,12 +2828,12 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2855,13 +2845,13 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="2" t="s">
-        <v>84</v>
+      <c r="N73" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2873,13 +2863,13 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="5" t="s">
-        <v>85</v>
+      <c r="N74" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2892,12 +2882,12 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2909,13 +2899,13 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="2" t="s">
-        <v>87</v>
+      <c r="N76" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2928,12 +2918,12 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2946,12 +2936,12 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2964,12 +2954,12 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2982,12 +2972,12 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2998,16 +2988,14 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2">
-        <v>10</v>
-      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3018,58 +3006,60 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="M82" s="2">
+        <v>10</v>
+      </c>
       <c r="N82" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="2">
-        <v>10</v>
-      </c>
-      <c r="J83" s="2">
-        <v>10</v>
-      </c>
-      <c r="K83" s="2">
-        <v>340</v>
-      </c>
-      <c r="L83" s="2">
-        <v>100</v>
-      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="2">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2">
+        <v>10</v>
+      </c>
+      <c r="K84" s="2">
+        <v>340</v>
+      </c>
+      <c r="L84" s="2">
+        <v>100</v>
+      </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3082,12 +3072,12 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3099,13 +3089,13 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="2" t="s">
-        <v>84</v>
+      <c r="N86" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3117,13 +3107,13 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="5" t="s">
-        <v>85</v>
+      <c r="N87" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3136,12 +3126,12 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3153,13 +3143,13 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="2" t="s">
-        <v>87</v>
+      <c r="N89" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3172,12 +3162,12 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3190,12 +3180,12 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3208,12 +3198,12 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3226,12 +3216,12 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3244,19 +3234,17 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2">
-        <v>2</v>
-      </c>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -3264,36 +3252,38 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="2">
-        <v>120</v>
-      </c>
-      <c r="G96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2">
-        <v>110</v>
-      </c>
-      <c r="F97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2">
+        <v>120</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3305,10 +3295,12 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>110</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -3317,17 +3309,13 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="5">
-        <v>21</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3337,13 +3325,17 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="5">
-        <v>23</v>
-      </c>
-      <c r="D100" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3352,16 +3344,12 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="2">
-        <v>50</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3372,58 +3360,60 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="M101" s="2">
+        <v>50</v>
+      </c>
       <c r="N101" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I102" s="2">
-        <v>50</v>
-      </c>
-      <c r="J102" s="2">
-        <v>50</v>
-      </c>
-      <c r="K102" s="2">
-        <v>110</v>
-      </c>
-      <c r="L102" s="2">
-        <v>120</v>
-      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103" s="2">
+        <v>50</v>
+      </c>
+      <c r="J103" s="2">
+        <v>50</v>
+      </c>
+      <c r="K103" s="2">
+        <v>110</v>
+      </c>
+      <c r="L103" s="2">
+        <v>120</v>
+      </c>
       <c r="M103" s="2"/>
-      <c r="N103" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3436,12 +3426,12 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3453,13 +3443,13 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-      <c r="N105" s="2" t="s">
-        <v>84</v>
+      <c r="N105" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3471,13 +3461,13 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-      <c r="N106" s="5" t="s">
-        <v>85</v>
+      <c r="N106" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3490,12 +3480,12 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3507,13 +3497,13 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="2" t="s">
-        <v>88</v>
+      <c r="N108" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3526,12 +3516,12 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3544,12 +3534,12 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3562,12 +3552,12 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3580,12 +3570,12 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3596,16 +3586,14 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="2">
-        <v>30</v>
-      </c>
+      <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3616,58 +3604,60 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
+      <c r="M114" s="2">
+        <v>30</v>
+      </c>
       <c r="N114" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I115" s="2">
-        <v>30</v>
-      </c>
-      <c r="J115" s="2">
-        <v>30</v>
-      </c>
-      <c r="K115" s="2">
-        <v>110</v>
-      </c>
-      <c r="L115" s="2">
-        <v>120</v>
-      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I116" s="2">
+        <v>30</v>
+      </c>
+      <c r="J116" s="2">
+        <v>30</v>
+      </c>
+      <c r="K116" s="2">
+        <v>110</v>
+      </c>
+      <c r="L116" s="2">
+        <v>120</v>
+      </c>
       <c r="M116" s="2"/>
-      <c r="N116" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3680,12 +3670,12 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3697,13 +3687,13 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="2" t="s">
-        <v>84</v>
+      <c r="N118" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3715,13 +3705,13 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="5" t="s">
-        <v>85</v>
+      <c r="N119" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3734,12 +3724,12 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3751,13 +3741,13 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="2" t="s">
-        <v>88</v>
+      <c r="N121" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3770,12 +3760,12 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3788,12 +3778,12 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3806,12 +3796,12 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3824,12 +3814,12 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3840,16 +3830,14 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="2">
-        <v>10</v>
-      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3860,58 +3848,60 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="M127" s="2">
+        <v>10</v>
+      </c>
       <c r="N127" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I128" s="2">
-        <v>10</v>
-      </c>
-      <c r="J128" s="2">
-        <v>10</v>
-      </c>
-      <c r="K128" s="2">
-        <v>110</v>
-      </c>
-      <c r="L128" s="2">
-        <v>120</v>
-      </c>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="N128" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129" s="2">
+        <v>10</v>
+      </c>
+      <c r="J129" s="2">
+        <v>10</v>
+      </c>
+      <c r="K129" s="2">
+        <v>110</v>
+      </c>
+      <c r="L129" s="2">
+        <v>120</v>
+      </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N129" s="2"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3924,12 +3914,12 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3941,13 +3931,13 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="2" t="s">
-        <v>84</v>
+      <c r="N131" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3959,13 +3949,13 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="5" t="s">
-        <v>85</v>
+      <c r="N132" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3978,12 +3968,12 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3995,13 +3985,13 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="2" t="s">
-        <v>88</v>
+      <c r="N134" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4014,12 +4004,12 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4032,12 +4022,12 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4050,12 +4040,12 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4068,12 +4058,12 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -4086,19 +4076,17 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="2">
-        <v>3</v>
-      </c>
+      <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -4106,36 +4094,38 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="2">
-        <v>170</v>
-      </c>
-      <c r="G141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2">
+        <v>3</v>
+      </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="N141" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2">
-        <v>280</v>
-      </c>
-      <c r="F142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2">
+        <v>170</v>
+      </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4147,10 +4137,12 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2">
+        <v>280</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -4159,13 +4151,11 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
-      <c r="N143" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="N143" s="2"/>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4178,56 +4168,56 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="5">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B145" s="6">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="6">
         <v>7</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4">
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4">
         <v>4</v>
       </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="2" t="s">
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B146" s="5">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2">
-        <v>220</v>
-      </c>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="2">
-        <v>50</v>
-      </c>
-      <c r="F147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2">
+        <v>220</v>
+      </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -4239,10 +4229,12 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="2">
+        <v>50</v>
+      </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -4251,17 +4243,13 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
-      <c r="N148" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="N148" s="2"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="5">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -4271,13 +4259,17 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
+      <c r="N149" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="5">
-        <v>13</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -4287,13 +4279,11 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="N150" s="2"/>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4304,16 +4294,14 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="2">
-        <v>50</v>
-      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4324,58 +4312,60 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
+      <c r="M152" s="2">
+        <v>50</v>
+      </c>
       <c r="N152" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I153" s="2">
-        <v>50</v>
-      </c>
-      <c r="J153" s="2">
-        <v>50</v>
-      </c>
-      <c r="K153" s="2">
-        <v>50</v>
-      </c>
-      <c r="L153" s="2">
-        <v>220</v>
-      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="N153" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I154" s="2">
+        <v>50</v>
+      </c>
+      <c r="J154" s="2">
+        <v>50</v>
+      </c>
+      <c r="K154" s="2">
+        <v>50</v>
+      </c>
+      <c r="L154" s="2">
+        <v>220</v>
+      </c>
       <c r="M154" s="2"/>
-      <c r="N154" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N154" s="2"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4388,12 +4378,12 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4405,13 +4395,13 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="2" t="s">
-        <v>84</v>
+      <c r="N156" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4423,13 +4413,13 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="5" t="s">
-        <v>85</v>
+      <c r="N157" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4442,12 +4432,12 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4459,13 +4449,13 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="2" t="s">
-        <v>87</v>
+      <c r="N159" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4478,12 +4468,12 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4496,12 +4486,12 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4514,12 +4504,12 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4532,12 +4522,12 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4550,12 +4540,12 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4568,19 +4558,17 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="5">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="G166" s="2">
-        <v>5</v>
-      </c>
+      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -4588,6 +4576,26 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="5">
+        <v>7</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2">
+        <v>5</v>
+      </c>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2" t="s">
         <v>125</v>
       </c>
     </row>
